--- a/ucla_mae.xlsx
+++ b/ucla_mae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>06</t>
   </si>
@@ -76,6 +76,9 @@
     <t>differential equations</t>
   </si>
   <si>
+    <t>arranged limited</t>
+  </si>
+  <si>
     <t>fluid mechanics</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>engineering applications</t>
   </si>
   <si>
+    <t>thermal hydraulic</t>
+  </si>
+  <si>
     <t>mechanical engineering</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>computer-controlled machines</t>
   </si>
   <si>
+    <t>ordinary differential</t>
+  </si>
+  <si>
     <t>numerical control</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>chemical thermodynamics</t>
   </si>
   <si>
+    <t>/ mechanical</t>
+  </si>
+  <si>
     <t>signal processing</t>
   </si>
   <si>
@@ -217,24 +229,15 @@
     <t>mems laboratory</t>
   </si>
   <si>
-    <t>engineering problems</t>
-  </si>
-  <si>
-    <t>requisite materials</t>
-  </si>
-  <si>
-    <t>cad/cam systems</t>
-  </si>
-  <si>
-    <t>variational methods</t>
-  </si>
-  <si>
-    <t>heat carriers</t>
+    <t>partial differential</t>
   </si>
   <si>
     <t>requisites chemistry</t>
   </si>
   <si>
+    <t>basic physical</t>
+  </si>
+  <si>
     <t>physical systems</t>
   </si>
   <si>
@@ -274,33 +277,39 @@
     <t>ﬂuid dynamics</t>
   </si>
   <si>
+    <t>engineering /</t>
+  </si>
+  <si>
+    <t>computer science</t>
+  </si>
+  <si>
+    <t>finite element</t>
+  </si>
+  <si>
+    <t>turbulent flows</t>
+  </si>
+  <si>
+    <t>fluid motion</t>
+  </si>
+  <si>
+    <t>bl corequisite</t>
+  </si>
+  <si>
+    <t>radio frequency</t>
+  </si>
+  <si>
+    <t>frequency identification</t>
+  </si>
+  <si>
+    <t>potential flow</t>
+  </si>
+  <si>
+    <t>biological systems</t>
+  </si>
+  <si>
     <t>engineering acoustics</t>
   </si>
   <si>
-    <t>computer science</t>
-  </si>
-  <si>
-    <t>turbulent flows</t>
-  </si>
-  <si>
-    <t>fluid motion</t>
-  </si>
-  <si>
-    <t>potential flow</t>
-  </si>
-  <si>
-    <t>bl corequisite</t>
-  </si>
-  <si>
-    <t>radio frequency</t>
-  </si>
-  <si>
-    <t>frequency identification</t>
-  </si>
-  <si>
-    <t>biological systems</t>
-  </si>
-  <si>
     <t>enforced requisites</t>
   </si>
   <si>
@@ -310,22 +319,19 @@
     <t>design project</t>
   </si>
   <si>
+    <t>enforced requisite</t>
+  </si>
+  <si>
     <t>fundamental principles</t>
   </si>
   <si>
     <t>nuclear power</t>
   </si>
   <si>
-    <t>design laboratory</t>
-  </si>
-  <si>
-    <t>arranged limited</t>
-  </si>
-  <si>
-    <t>dynamical systems</t>
-  </si>
-  <si>
-    <t>finite element</t>
+    <t>thermodynamic properties</t>
+  </si>
+  <si>
+    <t>propulsion systems</t>
   </si>
   <si>
     <t>smart grids</t>
@@ -334,27 +340,15 @@
     <t>analytical methods</t>
   </si>
   <si>
-    <t>propulsion systems</t>
-  </si>
-  <si>
     <t>mechanical design</t>
   </si>
   <si>
     <t>material processing</t>
   </si>
   <si>
-    <t>thermodynamic properties</t>
-  </si>
-  <si>
     <t>renewable energy</t>
   </si>
   <si>
-    <t>concepts including</t>
-  </si>
-  <si>
-    <t>material selection</t>
-  </si>
-  <si>
     <t>rapid prototyping</t>
   </si>
   <si>
@@ -364,22 +358,19 @@
     <t>physical principles</t>
   </si>
   <si>
-    <t>engineering /</t>
+    <t>feedback control</t>
+  </si>
+  <si>
+    <t>robotic systems</t>
+  </si>
+  <si>
+    <t>requisite mathematics</t>
   </si>
   <si>
     <t>statistical mechanics</t>
   </si>
   <si>
     <t>structural mechanics</t>
-  </si>
-  <si>
-    <t>feedback control</t>
-  </si>
-  <si>
-    <t>robotic systems</t>
-  </si>
-  <si>
-    <t>requisite mathematics</t>
   </si>
   <si>
     <t>manufacturing technology</t>
@@ -740,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,40 +1108,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1161,37 +1152,37 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1205,25 +1196,25 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1243,37 +1234,37 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1281,40 +1272,40 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1325,13 +1316,13 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1340,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1366,37 +1357,37 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1407,37 +1398,37 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1448,37 +1439,37 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1486,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1495,31 +1486,31 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1536,16 +1527,16 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1571,37 +1562,37 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1612,37 +1603,37 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1653,37 +1644,37 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1694,37 +1685,37 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1735,37 +1726,37 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1773,40 +1764,40 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1814,40 +1805,40 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1861,34 +1852,34 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1920,16 +1911,16 @@
         <v>4</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1940,31 +1931,31 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2002,16 +1993,16 @@
         <v>4</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2022,37 +2013,37 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2084,16 +2075,16 @@
         <v>4</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2110,31 +2101,31 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2145,25 +2136,25 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2186,37 +2177,37 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2227,10 +2218,10 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2306,40 +2297,40 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2347,40 +2338,40 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2388,40 +2379,40 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2432,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2473,37 +2464,37 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2514,37 +2505,37 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2555,37 +2546,37 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2596,34 +2587,34 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2637,28 +2628,28 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2678,37 +2669,37 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2728,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2737,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2763,25 +2754,25 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2807,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2816,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2842,37 +2833,37 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2886,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -2898,22 +2889,22 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2927,34 +2918,34 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2965,31 +2956,31 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3006,31 +2997,31 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3050,34 +3041,34 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3097,28 +3088,28 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3129,31 +3120,31 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3170,31 +3161,31 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3235,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3293,37 +3284,37 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3340,31 +3331,31 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3378,16 +3369,16 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3419,28 +3410,28 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3525,10 +3516,10 @@
         <v>4</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3557,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -3580,37 +3571,37 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3645,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3747,34 +3738,34 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3788,34 +3779,34 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3829,19 +3820,19 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3867,37 +3858,37 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3911,34 +3902,34 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3952,34 +3943,34 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3993,34 +3984,34 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4034,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4087,22 +4078,22 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4160,31 +4151,31 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4201,31 +4192,31 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4242,31 +4233,31 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4283,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -4298,16 +4289,16 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4327,28 +4318,28 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J88">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4368,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4380,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4409,28 +4400,28 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4450,28 +4441,28 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J91">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L91">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4491,28 +4482,28 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4532,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4544,16 +4535,16 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4582,19 +4573,19 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4623,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -4711,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="K97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4752,13 +4743,13 @@
         <v>4</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4790,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4834,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>3</v>
@@ -4872,16 +4863,16 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4913,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4957,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4998,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>4</v>
@@ -5039,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>4</v>
@@ -5080,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5121,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <v>3</v>
@@ -5162,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>3</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5206,132 +5197,9 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>3</v>
-      </c>
-      <c r="M111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
         <v>4</v>
       </c>
     </row>
